--- a/biology/Botanique/Classification_de_Bentham_et_Hooker/Classification_de_Bentham_et_Hooker.xlsx
+++ b/biology/Botanique/Classification_de_Bentham_et_Hooker/Classification_de_Bentham_et_Hooker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>La classification Bentham &amp; Hooker pour les spermatophytes est une des plus importantes classifications botaniques du XIXe siècle. Elle fut publiée par George Bentham (1800-1884) et Joseph Dalton Hooker (1817-1911) en 3 volumes de 1862 à 1883 sous le titre de Genera plantarum ad exemplaria imprimis in herbariis kewensibus servata definita (en ligne sur site de Gallica).
 Les groupes principaux dans cette classification sont :
@@ -523,7 +535,9 @@
           <t>Familles et ordres dans la classification Bentham &amp; Hooker</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette classification paraît avant la publication du Code international de nomenclature botanique. Ici, "ordo" indique une famille ; "cohors" (dans les deux premiers volumes) indique un ordre, mais c'est "series" (dans le troisième volume) qu'indique "ordre". La terminaision des noms de famille ne correspond pas à l'usage actuel.
 DICOTYLEDONES
@@ -808,7 +822,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Genera plantarum (Genera plantarum ad exemplaria imprimis in herbariis kewensibus servata definita) à botanicus.org
  Portail de la botanique                     </t>
